--- a/3系図込み-new.xlsx
+++ b/3系図込み-new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fshin3/OneDrive/FRA-docs/Doc-ABC/2系3系/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="280" documentId="8_{37575637-6FA8-E24F-A922-6E19611E8E59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{930F3A5F-A01F-C642-A3E5-7F28828871AF}"/>
+  <xr:revisionPtr revIDLastSave="304" documentId="8_{37575637-6FA8-E24F-A922-6E19611E8E59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4E63E46C-2DBA-DF4B-9CE6-11E3D072694C}"/>
   <bookViews>
     <workbookView xWindow="33460" yWindow="-14080" windowWidth="25060" windowHeight="16680" xr2:uid="{A46DFFA5-8E02-9F47-8146-7278D58A339C}"/>
   </bookViews>
@@ -1671,7 +1671,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="46">
   <si>
     <t>ABC</t>
     <phoneticPr fontId="1"/>
@@ -1884,6 +1884,14 @@
   </si>
   <si>
     <t>chach.hat(default year=3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ht_dummy2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>alpha_dummy2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5713,6 +5721,65 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Currentα</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>計算シート!$Z$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.75726750450030389</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>計算シート!$AA$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.17545342433728053</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5D4E-744D-9EA1-668B394BC586}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -9669,6 +9736,63 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-A39C-9C4B-99B7-D9A4E42C84AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Currentα</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Hokke-DS'!$Y$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.10639866603330507</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Hokke-DS'!$Z$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.98728420559527419</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D236-B041-886F-7930F372BF44}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -16152,6 +16276,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-ABAE-EF4F-849D-B24BA30E2E90}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -17190,6 +17317,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-ABAE-EF4F-849D-B24BA30E2E90}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -19368,6 +19498,84 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-06E7-D642-B9B4-2986C81BE247}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Currentα</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="10"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7873-0243-AEB7-DB309CF0977D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>NAtest!$Y$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>NAtest!$Z$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.74081822068171788</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7873-0243-AEB7-DB309CF0977D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -23606,7 +23814,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A13EB1-D207-CA49-B0A4-79E1A0765FC7}">
-  <dimension ref="A1:Y299"/>
+  <dimension ref="A1:AA299"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -23629,7 +23837,7 @@
     <col min="14" max="19" width="17" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:27">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -23699,8 +23907,14 @@
       <c r="Y1" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="C2" s="17" t="s">
         <v>12</v>
       </c>
@@ -23785,8 +23999,16 @@
         <f t="shared" ref="Y2:Y22" si="7">$C$18</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="Z2" s="4">
+        <f>C9</f>
+        <v>0.75726750450030389</v>
+      </c>
+      <c r="AA2" s="4">
+        <f>C12</f>
+        <v>0.17545342433728053</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" s="18"/>
       <c r="D3">
         <v>1996</v>
@@ -23870,7 +24092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="21" thickBot="1">
+    <row r="4" spans="1:27" ht="21" thickBot="1">
       <c r="A4" s="18"/>
       <c r="B4" s="16" t="s">
         <v>8</v>
@@ -23956,7 +24178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="21" thickBot="1">
+    <row r="5" spans="1:27" ht="21" thickBot="1">
       <c r="A5" s="28"/>
       <c r="B5" s="3" t="s">
         <v>0</v>
@@ -24046,7 +24268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:27">
       <c r="A6" s="30"/>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -24132,7 +24354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:27">
       <c r="A7" s="18"/>
       <c r="B7" s="4" t="s">
         <v>11</v>
@@ -24219,7 +24441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:27">
       <c r="A8" s="31"/>
       <c r="B8" s="11" t="s">
         <v>4</v>
@@ -24309,7 +24531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:27">
       <c r="A9" s="31"/>
       <c r="B9" s="12" t="s">
         <v>5</v>
@@ -24399,7 +24621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:27">
       <c r="A10" s="18"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -24484,7 +24706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:27">
       <c r="A11" s="18"/>
       <c r="B11" s="4" t="s">
         <v>2</v>
@@ -24574,7 +24796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:27">
       <c r="A12" s="18"/>
       <c r="B12" s="4" t="s">
         <v>3</v>
@@ -24664,7 +24886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:27">
       <c r="A13" s="18"/>
       <c r="B13" s="4" t="s">
         <v>43</v>
@@ -24754,7 +24976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:27">
       <c r="A14" s="18"/>
       <c r="D14">
         <v>2007</v>
@@ -24837,7 +25059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:27">
       <c r="A15" s="29"/>
       <c r="B15" s="6" t="s">
         <v>10</v>
@@ -24924,7 +25146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:27">
       <c r="A16" s="29"/>
       <c r="B16" s="6" t="s">
         <v>35</v>
@@ -40276,7 +40498,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B38EE6CF-3835-0A4A-AAF5-0D3F804727EB}">
-  <dimension ref="A1:X299"/>
+  <dimension ref="A1:Z299"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -40298,7 +40520,7 @@
     <col min="13" max="18" width="17" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -40368,8 +40590,14 @@
       <c r="X1" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -40456,8 +40684,16 @@
         <f t="shared" ref="X2:X22" si="7">$B$18</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="Y2" s="4">
+        <f>B9</f>
+        <v>0.10639866603330507</v>
+      </c>
+      <c r="Z2" s="4">
+        <f>B12</f>
+        <v>0.98728420559527419</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -40542,7 +40778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="21" thickBot="1">
+    <row r="4" spans="1:26" ht="21" thickBot="1">
       <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
@@ -40628,7 +40864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="21" thickBot="1">
+    <row r="5" spans="1:26" ht="21" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -40718,7 +40954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:26">
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
@@ -40804,7 +41040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:26">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -40891,7 +41127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:26">
       <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
@@ -40981,7 +41217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:26">
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
@@ -41071,7 +41307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:26">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="2">
@@ -41156,7 +41392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:26">
       <c r="A11" s="4" t="s">
         <v>2</v>
       </c>
@@ -41246,7 +41482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:26">
       <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
@@ -41336,7 +41572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:26">
       <c r="A13" s="4" t="s">
         <v>43</v>
       </c>
@@ -41426,7 +41662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:26">
       <c r="C14" s="2">
         <v>2005</v>
       </c>
@@ -41509,7 +41745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:26">
       <c r="A15" s="6" t="s">
         <v>10</v>
       </c>
@@ -41596,7 +41832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:26">
       <c r="A16" s="6" t="s">
         <v>35</v>
       </c>
@@ -55880,7 +56116,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F19BC29D-1007-B642-A34C-E5E24A52331B}">
-  <dimension ref="A1:X299"/>
+  <dimension ref="A1:Z299"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -55900,7 +56136,7 @@
     <col min="13" max="18" width="17" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -55970,8 +56206,14 @@
       <c r="X1" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="B2" s="17" t="s">
         <v>12</v>
       </c>
@@ -56056,8 +56298,16 @@
         <f t="shared" ref="X2:X22" si="7">$B$18</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="Y2" s="4">
+        <f>B9</f>
+        <v>0.25</v>
+      </c>
+      <c r="Z2" s="4">
+        <f>B12</f>
+        <v>0.74081822068171788</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="C3" s="19">
         <v>2002</v>
       </c>
@@ -56140,7 +56390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="21" thickBot="1">
+    <row r="4" spans="1:26" ht="21" thickBot="1">
       <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
@@ -56225,7 +56475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="21" thickBot="1">
+    <row r="5" spans="1:26" ht="21" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -56314,7 +56564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:26">
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
@@ -56399,7 +56649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:26">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -56485,7 +56735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:26">
       <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
@@ -56574,7 +56824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:26">
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
@@ -56665,7 +56915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:26">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="19"/>
@@ -56745,7 +56995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:26">
       <c r="A11" s="4" t="s">
         <v>2</v>
       </c>
@@ -56830,7 +57080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:26">
       <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
@@ -56915,7 +57165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:26">
       <c r="A13" s="4" t="s">
         <v>43</v>
       </c>
@@ -57000,7 +57250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:26">
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="25" t="s">
@@ -57078,7 +57328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:26">
       <c r="A15" s="6" t="s">
         <v>10</v>
       </c>
@@ -57160,7 +57410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:26">
       <c r="A16" s="6" t="s">
         <v>35</v>
       </c>

--- a/3系図込み-new.xlsx
+++ b/3系図込み-new.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fshin3/OneDrive/FRA-docs/Doc-ABC/2系3系/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fshin3/git/frasyr23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="304" documentId="8_{37575637-6FA8-E24F-A922-6E19611E8E59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4E63E46C-2DBA-DF4B-9CE6-11E3D072694C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE642E9-57F3-8546-9181-BCA15C2353E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33460" yWindow="-14080" windowWidth="25060" windowHeight="16680" xr2:uid="{A46DFFA5-8E02-9F47-8146-7278D58A339C}"/>
+    <workbookView xWindow="29000" yWindow="-15520" windowWidth="26480" windowHeight="16680" xr2:uid="{A46DFFA5-8E02-9F47-8146-7278D58A339C}"/>
   </bookViews>
   <sheets>
     <sheet name="計算シート" sheetId="2" r:id="rId1"/>
@@ -2581,8 +2581,9 @@
             <c:size val="12"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="75000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
@@ -2598,8 +2599,9 @@
               <c:size val="12"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="75000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:ln w="9525">
@@ -4584,7 +4586,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US" sz="1200"/>
-                  <a:t>年</a:t>
+                  <a:t>漁期年</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5836,19 +5838,7 @@
                   <a:rPr lang="ja-JP" altLang="ja-JP" sz="1200" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>漁獲量水準</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t> H</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="ja-JP" sz="1200" b="0" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>（漁獲量</a:t>
+                  <a:t>漁獲量水準（漁獲量</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" baseline="0">
@@ -8602,7 +8592,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US" sz="1200"/>
-                  <a:t>年</a:t>
+                  <a:t>漁期年</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -9865,10 +9855,6 @@
                 <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US" sz="1200"/>
                   <a:t>漁獲量水準</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
-                  <a:t> H</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="ja-JP" altLang="ja-JP" sz="1200" b="0" i="0" baseline="0">
@@ -10411,6 +10397,117 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="10"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="38100" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-0F7E-2D4D-B52F-0E89954BF271}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="10"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="38100" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-0F7E-2D4D-B52F-0E89954BF271}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="10"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="38100" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-0F7E-2D4D-B52F-0E89954BF271}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:xVal>
             <c:strRef>
               <c:f>NAtest!$C:$C</c:f>
@@ -18473,7 +18570,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US" sz="1200"/>
-                  <a:t>年</a:t>
+                  <a:t>漁期年</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -19635,19 +19732,7 @@
                   <a:rPr lang="ja-JP" altLang="ja-JP" sz="1200" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>漁獲量水準</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t> H</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="ja-JP" sz="1200" b="0" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>（漁獲量</a:t>
+                  <a:t>漁獲量水準（漁獲量</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" baseline="0">
@@ -23816,7 +23901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A13EB1-D207-CA49-B0A4-79E1A0765FC7}">
   <dimension ref="A1:AA299"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -40501,7 +40586,7 @@
   <dimension ref="A1:Z299"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
@@ -56118,7 +56203,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F19BC29D-1007-B642-A34C-E5E24A52331B}">
   <dimension ref="A1:Z299"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
   <cols>

--- a/3系図込み-new.xlsx
+++ b/3系図込み-new.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fshin3/git/frasyr23/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fshin3/Skydrive/FRA-docs/Doc-ABC/2系3系/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE642E9-57F3-8546-9181-BCA15C2353E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="114_{0686D2D1-4B90-FD47-A71B-491498AA7108}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4599CE47-DBB8-4854-9A79-C56806E4E151}"/>
   <bookViews>
-    <workbookView xWindow="29000" yWindow="-15520" windowWidth="26480" windowHeight="16680" xr2:uid="{A46DFFA5-8E02-9F47-8146-7278D58A339C}"/>
+    <workbookView xWindow="1420" yWindow="460" windowWidth="26220" windowHeight="14740" xr2:uid="{A46DFFA5-8E02-9F47-8146-7278D58A339C}"/>
   </bookViews>
   <sheets>
     <sheet name="計算シート" sheetId="2" r:id="rId1"/>
@@ -81,6 +81,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>Microsoft Office User:</t>
         </r>
@@ -101,7 +103,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="+mn-ea"/>
-            <charset val="1"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>漁獲量のデータが取得され始めた年から最近年までのデータを入力</t>
         </r>
@@ -110,7 +113,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="+mn-ea"/>
-            <charset val="1"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -119,7 +123,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="+mn-ea"/>
-            <charset val="1"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>。</t>
         </r>
@@ -133,6 +138,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>Microsoft Office User:</t>
         </r>
@@ -141,6 +148,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -150,6 +159,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>漁獲量から過去</t>
         </r>
@@ -158,6 +169,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>5</t>
         </r>
@@ -166,6 +179,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>年分の情報を利用し、平均する。</t>
         </r>
@@ -174,6 +189,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -183,6 +200,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>ABC</t>
         </r>
@@ -191,6 +210,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>計算に利用するのは最終年の値のみ。</t>
         </r>
@@ -204,6 +225,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>Microsoft Office User:</t>
         </r>
@@ -212,6 +235,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -221,6 +246,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>年</t>
         </r>
@@ -229,6 +256,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>(year)</t>
         </r>
@@ -237,6 +266,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>と漁獲量</t>
         </r>
@@ -245,6 +276,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>(catch)</t>
         </r>
@@ -253,6 +286,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>を時系列で入力。欠測データは</t>
         </r>
@@ -261,6 +296,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>#N/A</t>
         </r>
@@ -269,6 +306,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>を入力。年</t>
         </r>
@@ -277,6 +316,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>(year)</t>
         </r>
@@ -285,6 +326,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>は西暦でも和暦でも良いが、欠測なく、</t>
         </r>
@@ -303,6 +346,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="+mn-ea"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>。作図のためにはデータ最終年の翌年まで入力し、同行の</t>
         </r>
@@ -311,6 +356,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="+mn-ea"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>G</t>
         </r>
@@ -319,6 +366,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="+mn-ea"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>列に</t>
         </r>
@@ -327,6 +376,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="+mn-ea"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>ABC</t>
         </r>
@@ -335,6 +386,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="+mn-ea"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>値をコピー。</t>
         </r>
@@ -343,6 +396,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="+mn-ea"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t xml:space="preserve">  </t>
         </r>
@@ -512,6 +567,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>Microsoft Office User:</t>
         </r>
@@ -520,6 +577,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -529,6 +588,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>資源量の状態はわからないので、漁獲量が大きいと資源量の減少に繋がると考え、</t>
         </r>
@@ -537,6 +598,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>Ht</t>
         </r>
@@ -545,6 +608,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>が</t>
         </r>
@@ -553,6 +618,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>YB(=YT*PB)</t>
         </r>
@@ -561,6 +628,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>を上回ると禁漁する。</t>
         </r>
@@ -569,6 +638,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -578,6 +649,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>限界漁獲量水準</t>
         </r>
@@ -586,6 +659,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>(YL=YT*PL)</t>
         </r>
@@ -594,6 +669,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>を下回ると資源量減少の危険が回避されると考え、漁獲量水準が</t>
         </r>
@@ -602,6 +679,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>YT</t>
         </r>
@@ -610,6 +689,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>に近づくような漁獲とする。</t>
         </r>
@@ -618,6 +699,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -627,6 +710,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>この中間では漁獲量を徐々に増やすことを目指す漁獲を行う。</t>
         </r>
@@ -635,6 +720,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -649,6 +736,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>Microsoft Office User:</t>
         </r>
@@ -657,6 +746,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -666,6 +757,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>最近年の漁獲量水準</t>
         </r>
@@ -674,6 +767,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>(Ht)</t>
         </r>
@@ -682,6 +777,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>と目標漁獲量水準</t>
         </r>
@@ -690,6 +787,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>(YT)</t>
         </r>
@@ -698,6 +797,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>の乖離をどれだけ早く解消するかという係数を算出。</t>
         </r>
@@ -706,6 +807,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>ABC</t>
         </r>
@@ -714,6 +817,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>はこれに漁獲を乗じて算出。</t>
         </r>
@@ -727,6 +832,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>Microsoft Office User:</t>
         </r>
@@ -735,6 +842,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -744,6 +853,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>チューニングパラメータはシミュレーションにより決定。詳しくは「新２系ルール」ドキュメントを参照。</t>
         </r>
@@ -757,6 +868,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>Microsoft Office User:</t>
         </r>
@@ -765,6 +878,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -774,6 +889,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="+mn-ea"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>ABC</t>
         </r>
@@ -782,6 +899,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="+mn-ea"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>計算のための過去</t>
         </r>
@@ -790,6 +909,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="+mn-ea"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>3</t>
         </r>
@@ -798,6 +919,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="+mn-ea"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>年分の漁獲量の平均を計算に用いるので、その</t>
         </r>
@@ -806,6 +929,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="+mn-ea"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>3</t>
         </r>
@@ -814,6 +939,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="+mn-ea"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>年を手動で指定する。具体的には</t>
         </r>
@@ -822,6 +949,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="+mn-ea"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>F</t>
         </r>
@@ -830,6 +959,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="+mn-ea"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>列で１を入力。計算に使用しない年は</t>
         </r>
@@ -838,6 +969,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="+mn-ea"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>na</t>
         </r>
@@ -846,6 +979,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="+mn-ea"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>とする。</t>
         </r>
@@ -854,6 +989,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="+mn-ea"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -863,6 +1000,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="+mn-ea"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -877,6 +1016,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>Microsoft Office User:</t>
         </r>
@@ -885,6 +1026,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -960,6 +1103,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>Microsoft Office User:</t>
         </r>
@@ -968,6 +1113,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -977,6 +1124,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>NA</t>
         </r>
@@ -985,6 +1134,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>込みデータのテストなので、図が正しく表示されていませんが気になさらず。</t>
         </r>
@@ -998,6 +1149,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>Microsoft Office User:</t>
         </r>
@@ -1018,7 +1171,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="+mn-ea"/>
-            <charset val="1"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>漁獲量のデータが取得され始めた年から最近年までのデータを入力</t>
         </r>
@@ -1027,7 +1181,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="+mn-ea"/>
-            <charset val="1"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1036,7 +1191,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="+mn-ea"/>
-            <charset val="1"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>。</t>
         </r>
@@ -1050,6 +1206,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>Microsoft Office User:</t>
         </r>
@@ -1058,6 +1216,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1067,6 +1227,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>漁獲量から過去</t>
         </r>
@@ -1075,6 +1237,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>5</t>
         </r>
@@ -1083,6 +1247,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>年分の情報を利用し、平均する。</t>
         </r>
@@ -1091,6 +1257,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1100,6 +1268,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>ABC</t>
         </r>
@@ -1108,6 +1278,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>計算に利用するのは最終年の値のみ。</t>
         </r>
@@ -1121,6 +1293,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>Microsoft Office User:</t>
         </r>
@@ -1129,6 +1303,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1138,6 +1314,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>年</t>
         </r>
@@ -1146,6 +1324,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>(year)</t>
         </r>
@@ -1154,6 +1334,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>と漁獲量</t>
         </r>
@@ -1162,6 +1344,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>(catch)</t>
         </r>
@@ -1170,6 +1354,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>を時系列で入力。欠測データは</t>
         </r>
@@ -1178,6 +1364,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>#N/A</t>
         </r>
@@ -1186,6 +1374,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>を入力。年</t>
         </r>
@@ -1194,6 +1384,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>(year)</t>
         </r>
@@ -1202,6 +1394,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>は西暦でも和暦でも良いが、欠測なく、</t>
         </r>
@@ -1220,6 +1414,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="+mn-ea"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>。作図のためにはデータ最終年の翌年まで入力し、同行の</t>
         </r>
@@ -1228,6 +1424,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="+mn-ea"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>G</t>
         </r>
@@ -1236,6 +1434,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="+mn-ea"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>列に</t>
         </r>
@@ -1244,6 +1444,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="+mn-ea"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>ABC</t>
         </r>
@@ -1252,6 +1454,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="+mn-ea"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>値をコピー。</t>
         </r>
@@ -1260,6 +1464,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="+mn-ea"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t xml:space="preserve">  </t>
         </r>
@@ -1429,6 +1635,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>Microsoft Office User:</t>
         </r>
@@ -1437,6 +1645,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1446,6 +1656,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>資源量の状態はわからないので、漁獲量が大きいと資源量の減少に繋がると考え、</t>
         </r>
@@ -1454,6 +1666,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>Ht</t>
         </r>
@@ -1462,6 +1676,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>が</t>
         </r>
@@ -1470,6 +1686,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>YB(=YT*PB)</t>
         </r>
@@ -1478,6 +1696,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>を上回ると禁漁する。</t>
         </r>
@@ -1486,6 +1706,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1495,6 +1717,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>限界漁獲量水準</t>
         </r>
@@ -1503,6 +1727,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>(YL=YT*PL)</t>
         </r>
@@ -1511,6 +1737,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>を下回ると資源量減少の危険が回避されると考え、漁獲量水準が</t>
         </r>
@@ -1519,6 +1747,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>YT</t>
         </r>
@@ -1527,6 +1757,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>に近づくような漁獲とする。</t>
         </r>
@@ -1535,6 +1767,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1544,6 +1778,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>この中間では漁獲量を徐々に増やすことを目指す漁獲を行う。</t>
         </r>
@@ -1552,6 +1788,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1566,6 +1804,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>Microsoft Office User:</t>
         </r>
@@ -1574,6 +1814,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1583,6 +1825,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>最近年の漁獲量水準</t>
         </r>
@@ -1591,6 +1835,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>(Ht)</t>
         </r>
@@ -1599,6 +1845,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>と目標漁獲量水準</t>
         </r>
@@ -1607,6 +1855,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>(YT)</t>
         </r>
@@ -1615,6 +1865,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>の乖離をどれだけ早く解消するかという係数を算出。</t>
         </r>
@@ -1623,6 +1875,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>ABC</t>
         </r>
@@ -1631,6 +1885,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>はこれに漁獲を乗じて算出。</t>
         </r>
@@ -1644,6 +1900,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>Microsoft Office User:</t>
         </r>
@@ -1652,6 +1910,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1661,6 +1921,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Yu Gothic UI"/>
+            <family val="3"/>
+            <charset val="128"/>
           </rPr>
           <t>チューニングパラメータはシミュレーションにより決定。詳しくは「新２系ルール」ドキュメントを参照。</t>
         </r>
@@ -1899,7 +2161,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1920,11 +2182,15 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Yu Gothic UI"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Yu Gothic UI"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
@@ -1991,12 +2257,8 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="+mn-ea"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="+mn-ea"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2562,7 +2824,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>最近年5年平均漁獲量</c:v>
+            <c:v>3年平均漁獲量</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="38100" cap="rnd">
@@ -2806,14 +3068,166 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Btarget-Catch</c:v>
+            <c:v>算定漁獲量</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="23"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="12"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-87E9-5E4B-A7C6-D6116651C6EA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[0]!年</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[0]!ダミーABC</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="23">
+                  <c:v>818.13097142382799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-0B9F-774E-A93F-EA3205A6B18C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>目標水準案</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2821,22 +3235,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="25400" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>[0]!年</c:f>
@@ -3008,13 +3406,15 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
-            <c:v>Blim-Catch</c:v>
+            <c:v>限界水準案</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3022,20 +3422,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="25400" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>[0]!年</c:f>
@@ -3207,13 +3593,15 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="4"/>
+          <c:order val="5"/>
           <c:tx>
-            <c:v>Bban-Catch</c:v>
+            <c:v>禁漁水準案</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3221,20 +3609,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="25400" cap="rnd">
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>[0]!年</c:f>
@@ -3406,7 +3780,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="5"/>
+          <c:order val="6"/>
           <c:tx>
             <c:v>20%</c:v>
           </c:tx>
@@ -3668,7 +4042,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
-          <c:order val="6"/>
+          <c:order val="7"/>
           <c:tx>
             <c:v>60%</c:v>
           </c:tx>
@@ -3930,7 +4304,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
-          <c:order val="7"/>
+          <c:order val="8"/>
           <c:tx>
             <c:v>80%</c:v>
           </c:tx>
@@ -4204,7 +4578,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="8"/>
+          <c:order val="9"/>
           <c:tx>
             <c:v>40%</c:v>
           </c:tx>
@@ -4390,146 +4764,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-4B33-7B4B-8E6B-C6092F88AB16}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:v>ABC</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="23"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="12"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-87E9-5E4B-A7C6-D6116651C6EA}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:xVal>
-            <c:numRef>
-              <c:f>[0]!年</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2018</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>[0]!ダミーABC</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="23">
-                  <c:v>818.13097142382799</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-0B9F-774E-A93F-EA3205A6B18C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4817,6 +5051,57 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="8"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="9"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -5218,7 +5503,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Btarget</c:v>
+            <c:v>目標水準案</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -5389,7 +5674,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>Blim</c:v>
+            <c:v>限界水準案</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -5558,7 +5843,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>Bban</c:v>
+            <c:v>禁漁水準案</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -6098,6 +6383,49 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -6845,7 +7173,11 @@
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -6853,22 +7185,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="25400" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>[0]!year</c:f>
@@ -7074,18 +7390,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="25400" cap="rnd">
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>[0]!year</c:f>
@@ -7281,7 +7585,9 @@
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -7289,20 +7595,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="25400" cap="rnd">
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>[0]!year</c:f>
@@ -11486,22 +11778,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="25400" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:strRef>
               <c:f>NAtest!$C:$C</c:f>
@@ -12466,20 +12742,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="25400" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:strRef>
               <c:f>NAtest!$C:$C</c:f>
@@ -13444,20 +13706,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="25400" cap="rnd">
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:strRef>
               <c:f>NAtest!$C:$C</c:f>
@@ -23901,7 +24149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A13EB1-D207-CA49-B0A4-79E1A0765FC7}">
   <dimension ref="A1:AA299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -40586,7 +40834,7 @@
   <dimension ref="A1:Z299"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
@@ -56203,7 +56451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F19BC29D-1007-B642-A34C-E5E24A52331B}">
   <dimension ref="A1:Z299"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -72792,7 +73040,8 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>